--- a/FlyShakerParts.xlsx
+++ b/FlyShakerParts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Shaft Mount 1/4"</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/6061K411</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/9657K248/</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,11 +424,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
